--- a/ITI/Scheduling/StructureDefinition-extension-status-reason.xlsx
+++ b/ITI/Scheduling/StructureDefinition-extension-status-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
